--- a/mySystem/mySystem/xls/cleancut/4 SOP-MFG-302-R04A 清洁分切机运行记录.xlsx
+++ b/mySystem/mySystem/xls/cleancut/4 SOP-MFG-302-R04A 清洁分切机运行记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\upload\mitcpro\mySystem\mySystem\xls\cleancut\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCXFD\Github\hzkx\mitcpro\mySystem\mySystem\xls\cleancut\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -210,8 +210,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,7 +387,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -397,18 +397,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -447,6 +438,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -487,7 +481,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -752,10 +746,10 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A14" sqref="A5:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="34.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.75" style="1" customWidth="1"/>
@@ -767,235 +761,213 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="13" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-    </row>
-    <row r="3" spans="1:10" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+    </row>
+    <row r="3" spans="1:10" s="7" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
-    </row>
-    <row r="4" spans="1:10" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="1:10" ht="27.75">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
-        <v>5</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
-        <v>6</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
-        <v>7</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
-        <v>8</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
-        <v>9</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
-        <v>11</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+    <row r="5" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
